--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_10-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_10-17.xlsx
@@ -41,10 +41,19 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
@@ -699,13 +708,13 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -717,7 +726,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -731,11 +740,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -743,7 +752,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -757,11 +766,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -783,7 +792,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>122</v>
+        <v>149.5</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -803,17 +812,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -835,7 +844,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -861,11 +870,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -873,7 +882,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -881,13 +890,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -899,7 +908,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -907,51 +916,103 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="K14" s="10">
-        <v>477</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c t="s" r="B14" s="7">
         <v>24</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c t="s" r="F15" s="12">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c t="s" r="H14" s="8">
         <v>25</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c t="s" r="I15" s="14">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c t="s" r="N14" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
         <v>26</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
+        <v>23</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>50</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c t="s" r="N15" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="K16" s="10">
+        <v>657.5</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="11">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c t="s" r="F17" s="12">
+        <v>28</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c t="s" r="I17" s="14">
+        <v>29</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="47">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -989,10 +1050,16 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:N17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
